--- a/bom/BOM_XYHT.xlsx
+++ b/bom/BOM_XYHT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Olivier\CAD\COREXY_Design\HevORT\Components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0722D9C5-8743-4651-A3A2-D4EDDE624D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{0722D9C5-8743-4651-A3A2-D4EDDE624D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{906A921B-B1BF-4B5C-A87D-E442127712E6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="177">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -545,6 +545,12 @@
   </si>
   <si>
     <t>https://www.thingiverse.com/thing:4402507</t>
+  </si>
+  <si>
+    <t>Hard to find</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32917702848.html?spm=a2g0s.9042311.0.0.10194c4dtWXsMc</t>
   </si>
 </sst>
 </file>
@@ -738,9 +744,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,6 +756,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -760,13 +766,7 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -839,6 +839,12 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2574,24 +2580,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{152B1C96-06A9-4A39-A7DD-C10FEE983218}" name="Table1" displayName="Table1" ref="A1:L40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{152B1C96-06A9-4A39-A7DD-C10FEE983218}" name="Table1" displayName="Table1" ref="A1:L40" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:L40" xr:uid="{ADCCACAD-FFF4-4C80-9E4B-5B02F6B935BF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L40">
     <sortCondition ref="B1:B40"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0D6BA3BA-9A73-4FC9-8B94-9487BDB52017}" name="SubAssy" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{DA57673C-3F46-4534-AD09-5BF5B37DEF7D}" name="Category" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{D7730DD7-70DC-4FBA-A6EC-20D3250851EF}" name="Item" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{03B562F9-795E-4CAC-A536-18823EB43366}" name="Thumbnail" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{21E95E5F-0EC1-40C4-A231-8EA71F877635}" name="Part Name" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{9464E849-52AD-4520-BE94-4A6717D9E053}" name="Part Description" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{73CFEB50-853F-4404-B7DC-70BAA6AA9826}" name="Make/Buy" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{E7650E62-A26B-4947-9DAD-4D23D726600B}" name="QTY" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{65AA2DD6-AAC9-4399-A041-DB811853A307}" name="Comment" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{B5BF2792-AFDE-4511-AC5C-103973296B4C}" name="Vendor" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{4C356EF8-5E6A-47E3-AC29-F7FA6D400AB4}" name="Vendor URL" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{2EF4C34F-8C72-400C-A3AB-D841563F0B2A}" name="ID" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0D6BA3BA-9A73-4FC9-8B94-9487BDB52017}" name="SubAssy" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{DA57673C-3F46-4534-AD09-5BF5B37DEF7D}" name="Category" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{D7730DD7-70DC-4FBA-A6EC-20D3250851EF}" name="Item" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{03B562F9-795E-4CAC-A536-18823EB43366}" name="Thumbnail" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{21E95E5F-0EC1-40C4-A231-8EA71F877635}" name="Part Name" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{9464E849-52AD-4520-BE94-4A6717D9E053}" name="Part Description" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{73CFEB50-853F-4404-B7DC-70BAA6AA9826}" name="Make/Buy" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{E7650E62-A26B-4947-9DAD-4D23D726600B}" name="QTY" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{65AA2DD6-AAC9-4399-A041-DB811853A307}" name="Comment" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{B5BF2792-AFDE-4511-AC5C-103973296B4C}" name="Vendor" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{4C356EF8-5E6A-47E3-AC29-F7FA6D400AB4}" name="Vendor URL" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{2EF4C34F-8C72-400C-A3AB-D841563F0B2A}" name="ID" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2921,24 +2927,25 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="12" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="11" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" style="9" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" style="8" customWidth="1"/>
-    <col min="5" max="6" width="38.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="38.7109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51.7109375" style="8" customWidth="1"/>
-    <col min="10" max="11" width="38.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="38.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="53.5703125" style="8" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" style="8" hidden="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
@@ -2976,1076 +2983,1101 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>2</v>
       </c>
+      <c r="K2" s="9"/>
       <c r="L2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>2</v>
       </c>
+      <c r="K3" s="9"/>
       <c r="L3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>1</v>
       </c>
+      <c r="K4" s="9"/>
       <c r="L4" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>1</v>
       </c>
+      <c r="K5" s="9"/>
       <c r="L5" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>1</v>
       </c>
+      <c r="K6" s="9"/>
       <c r="L6" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>2</v>
       </c>
+      <c r="K7" s="9"/>
       <c r="L7" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>2</v>
       </c>
+      <c r="K8" s="9"/>
       <c r="L8" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>1</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="13" t="s">
         <v>104</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>1</v>
       </c>
+      <c r="K10" s="9"/>
       <c r="L10" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>2</v>
       </c>
+      <c r="K11" s="9"/>
       <c r="L11" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>6</v>
       </c>
+      <c r="K12" s="9"/>
       <c r="L12" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>4</v>
       </c>
+      <c r="K13" s="9"/>
       <c r="L13" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>6</v>
       </c>
+      <c r="K14" s="9"/>
       <c r="L14" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>1</v>
       </c>
+      <c r="K15" s="9"/>
       <c r="L15" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>49</v>
       </c>
+      <c r="K16" s="9"/>
       <c r="L16" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>15</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>4</v>
       </c>
+      <c r="K18" s="9"/>
       <c r="L18" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>27</v>
       </c>
+      <c r="K19" s="9"/>
       <c r="L19" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>27</v>
       </c>
+      <c r="K20" s="9"/>
       <c r="L20" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>4</v>
       </c>
+      <c r="K21" s="9"/>
       <c r="L21" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>3</v>
       </c>
+      <c r="K22" s="9"/>
       <c r="L22" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <v>6</v>
       </c>
+      <c r="K23" s="9"/>
       <c r="L23" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <v>6</v>
       </c>
+      <c r="K24" s="9"/>
       <c r="L24" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>2</v>
       </c>
+      <c r="K25" s="9"/>
       <c r="L25" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="10">
         <v>2</v>
       </c>
+      <c r="K26" s="9"/>
       <c r="L26" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="10">
         <v>1</v>
       </c>
+      <c r="K27" s="9"/>
       <c r="L27" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="10">
         <v>1</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="13" t="s">
         <v>162</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="10">
         <v>1</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="13" t="s">
         <v>163</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="10">
         <v>1</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="13" t="s">
         <v>164</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="10">
         <v>1</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="13" t="s">
         <v>165</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="10">
         <v>1</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="13" t="s">
         <v>166</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="10">
         <v>1</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="13" t="s">
         <v>167</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="10">
         <v>1</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="13" t="s">
         <v>168</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="10">
         <v>1</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="13" t="s">
         <v>169</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="10">
         <v>1</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="13" t="s">
         <v>170</v>
       </c>
       <c r="L36" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="10">
         <v>1</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="13" t="s">
         <v>171</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="10">
         <v>1</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="10">
         <v>1</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="K39" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="8" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="10">
         <v>1</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="K40" s="13" t="s">
         <v>174</v>
       </c>
       <c r="L40" s="8" t="s">
@@ -4058,12 +4090,16 @@
     <hyperlink ref="K9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="K28" r:id="rId2" xr:uid="{A8F9CE4D-E3AD-4E66-9F48-CB200B2D055B}"/>
     <hyperlink ref="K29:K40" r:id="rId3" display="https://www.thingiverse.com/thing:4402495" xr:uid="{EA1BCF82-D473-4FC1-8B84-3A79910D6022}"/>
+    <hyperlink ref="K17" r:id="rId4" xr:uid="{B721F377-2B85-4639-8C68-33703738BEE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+  <webPublishItems count="1">
+    <webPublishItem id="13607" divId="BOM_XYHT_13607" sourceType="sheet" destinationFile="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/BOM_XYHT.htm" autoRepublish="1"/>
+  </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/bom/BOM_XYHT.xlsx
+++ b/bom/BOM_XYHT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{0722D9C5-8743-4651-A3A2-D4EDDE624D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{906A921B-B1BF-4B5C-A87D-E442127712E6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85DD409-E85B-4B74-9D62-932A523496AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="178">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -547,10 +547,13 @@
     <t>https://www.thingiverse.com/thing:4402507</t>
   </si>
   <si>
-    <t>Hard to find</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.com/item/32917702848.html?spm=a2g0s.9042311.0.0.10194c4dtWXsMc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qty 16 based on X&amp;Y Print size at 315.  Add Qty2 for every additional 5cm of Y axis over 315mm. </t>
+  </si>
+  <si>
+    <t>Default (can be trimmed if too long)</t>
   </si>
 </sst>
 </file>
@@ -574,23 +577,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -606,31 +592,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FF00CCFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -641,6 +603,46 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00CCFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -657,7 +659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -710,6 +712,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -718,33 +735,27 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -753,11 +764,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -766,15 +780,75 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -785,7 +859,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -794,6 +868,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -825,25 +908,54 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2580,24 +2692,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{152B1C96-06A9-4A39-A7DD-C10FEE983218}" name="Table1" displayName="Table1" ref="A1:L40" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{152B1C96-06A9-4A39-A7DD-C10FEE983218}" name="Table1" displayName="Table1" ref="A1:L40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:L40" xr:uid="{ADCCACAD-FFF4-4C80-9E4B-5B02F6B935BF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L40">
     <sortCondition ref="B1:B40"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0D6BA3BA-9A73-4FC9-8B94-9487BDB52017}" name="SubAssy" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{DA57673C-3F46-4534-AD09-5BF5B37DEF7D}" name="Category" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{D7730DD7-70DC-4FBA-A6EC-20D3250851EF}" name="Item" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{03B562F9-795E-4CAC-A536-18823EB43366}" name="Thumbnail" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{21E95E5F-0EC1-40C4-A231-8EA71F877635}" name="Part Name" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{9464E849-52AD-4520-BE94-4A6717D9E053}" name="Part Description" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{73CFEB50-853F-4404-B7DC-70BAA6AA9826}" name="Make/Buy" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{E7650E62-A26B-4947-9DAD-4D23D726600B}" name="QTY" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{65AA2DD6-AAC9-4399-A041-DB811853A307}" name="Comment" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{B5BF2792-AFDE-4511-AC5C-103973296B4C}" name="Vendor" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{4C356EF8-5E6A-47E3-AC29-F7FA6D400AB4}" name="Vendor URL" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{2EF4C34F-8C72-400C-A3AB-D841563F0B2A}" name="ID" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0D6BA3BA-9A73-4FC9-8B94-9487BDB52017}" name="SubAssy" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{DA57673C-3F46-4534-AD09-5BF5B37DEF7D}" name="Category" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{D7730DD7-70DC-4FBA-A6EC-20D3250851EF}" name="Item" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{03B562F9-795E-4CAC-A536-18823EB43366}" name="Thumbnail" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{21E95E5F-0EC1-40C4-A231-8EA71F877635}" name="Part Name" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{9464E849-52AD-4520-BE94-4A6717D9E053}" name="Part Description" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{73CFEB50-853F-4404-B7DC-70BAA6AA9826}" name="Make/Buy" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{E7650E62-A26B-4947-9DAD-4D23D726600B}" name="QTY" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{65AA2DD6-AAC9-4399-A041-DB811853A307}" name="Comment" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{B5BF2792-AFDE-4511-AC5C-103973296B4C}" name="Vendor" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{4C356EF8-5E6A-47E3-AC29-F7FA6D400AB4}" name="Vendor URL" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{2EF4C34F-8C72-400C-A3AB-D841563F0B2A}" name="ID" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2926,1166 +3038,1169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="11" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="8" customWidth="1"/>
-    <col min="5" max="6" width="38.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.7109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="38.7109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="53.5703125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="15.7109375" style="8" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="38.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="38.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="53.5703125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>2</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>2</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="8" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>1</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="8" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>1</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="8" t="s">
+      <c r="K5" s="10"/>
+      <c r="L5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>1</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="8" t="s">
+      <c r="K6" s="10"/>
+      <c r="L6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>2</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="8" t="s">
+      <c r="K7" s="10"/>
+      <c r="L7" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>2</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="8" t="s">
+      <c r="K8" s="10"/>
+      <c r="L8" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>1</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="8" t="s">
+      <c r="K10" s="10"/>
+      <c r="L10" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>2</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="8" t="s">
+      <c r="K11" s="10"/>
+      <c r="L11" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>6</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="8" t="s">
+      <c r="K12" s="10"/>
+      <c r="L12" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>4</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="8" t="s">
+      <c r="K13" s="10"/>
+      <c r="L13" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>6</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="8" t="s">
+      <c r="K14" s="10"/>
+      <c r="L14" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>1</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="8" t="s">
+      <c r="K15" s="10"/>
+      <c r="L15" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>49</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="8" t="s">
+      <c r="K16" s="10"/>
+      <c r="L16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="10">
-        <v>15</v>
-      </c>
-      <c r="I17" s="8" t="s">
+      <c r="H17" s="9">
+        <v>16</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <v>4</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="8" t="s">
+      <c r="K18" s="10"/>
+      <c r="L18" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <v>27</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="8" t="s">
+      <c r="K19" s="10"/>
+      <c r="L19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>27</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="8" t="s">
+      <c r="K20" s="10"/>
+      <c r="L20" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <v>4</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="8" t="s">
+      <c r="K21" s="10"/>
+      <c r="L21" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>3</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="8" t="s">
+      <c r="K22" s="10"/>
+      <c r="L22" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <v>6</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="8" t="s">
+      <c r="K23" s="10"/>
+      <c r="L23" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <v>6</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="8" t="s">
+      <c r="K24" s="10"/>
+      <c r="L24" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <v>2</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="8" t="s">
+      <c r="K25" s="10"/>
+      <c r="L25" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <v>2</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="8" t="s">
+      <c r="K26" s="10"/>
+      <c r="L26" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <v>1</v>
       </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="8" t="s">
+      <c r="K27" s="10"/>
+      <c r="L27" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <v>1</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <v>1</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="I29" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="K29" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="L29" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <v>1</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K30" s="13" t="s">
+      <c r="K30" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <v>1</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="K31" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="L31" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <v>1</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="9">
         <v>1</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K33" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <v>1</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K34" s="13" t="s">
+      <c r="K34" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <v>1</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K35" s="13" t="s">
+      <c r="K35" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="L35" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <v>1</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K36" s="13" t="s">
+      <c r="K36" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="L36" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="9">
         <v>1</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K37" s="13" t="s">
+      <c r="K37" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="L37" s="8" t="s">
+      <c r="L37" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <v>1</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K38" s="13" t="s">
+      <c r="K38" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="9">
         <v>1</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K39" s="13" t="s">
+      <c r="K39" s="11" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <v>1</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K40" s="13" t="s">
+      <c r="K40" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="L40" s="4" t="s">
         <v>148</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="K28" r:id="rId2" xr:uid="{A8F9CE4D-E3AD-4E66-9F48-CB200B2D055B}"/>

--- a/bom/BOM_XYHT.xlsx
+++ b/bom/BOM_XYHT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85DD409-E85B-4B74-9D62-932A523496AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3AAE3C-1716-492B-A688-B1F08E26D1E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -801,30 +801,6 @@
         <name val="Calibri"/>
         <family val="2"/>
       </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -957,6 +933,30 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2692,24 +2692,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{152B1C96-06A9-4A39-A7DD-C10FEE983218}" name="Table1" displayName="Table1" ref="A1:L40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{152B1C96-06A9-4A39-A7DD-C10FEE983218}" name="Table1" displayName="Table1" ref="A1:L40" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:L40" xr:uid="{ADCCACAD-FFF4-4C80-9E4B-5B02F6B935BF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L40">
     <sortCondition ref="B1:B40"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0D6BA3BA-9A73-4FC9-8B94-9487BDB52017}" name="SubAssy" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{DA57673C-3F46-4534-AD09-5BF5B37DEF7D}" name="Category" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{D7730DD7-70DC-4FBA-A6EC-20D3250851EF}" name="Item" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{03B562F9-795E-4CAC-A536-18823EB43366}" name="Thumbnail" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{21E95E5F-0EC1-40C4-A231-8EA71F877635}" name="Part Name" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{9464E849-52AD-4520-BE94-4A6717D9E053}" name="Part Description" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{73CFEB50-853F-4404-B7DC-70BAA6AA9826}" name="Make/Buy" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{E7650E62-A26B-4947-9DAD-4D23D726600B}" name="QTY" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{65AA2DD6-AAC9-4399-A041-DB811853A307}" name="Comment" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{B5BF2792-AFDE-4511-AC5C-103973296B4C}" name="Vendor" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{4C356EF8-5E6A-47E3-AC29-F7FA6D400AB4}" name="Vendor URL" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{2EF4C34F-8C72-400C-A3AB-D841563F0B2A}" name="ID" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0D6BA3BA-9A73-4FC9-8B94-9487BDB52017}" name="SubAssy" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{DA57673C-3F46-4534-AD09-5BF5B37DEF7D}" name="Category" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{D7730DD7-70DC-4FBA-A6EC-20D3250851EF}" name="Item" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{03B562F9-795E-4CAC-A536-18823EB43366}" name="Thumbnail" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{21E95E5F-0EC1-40C4-A231-8EA71F877635}" name="Part Name" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{9464E849-52AD-4520-BE94-4A6717D9E053}" name="Part Description" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{73CFEB50-853F-4404-B7DC-70BAA6AA9826}" name="Make/Buy" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{E7650E62-A26B-4947-9DAD-4D23D726600B}" name="QTY" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{65AA2DD6-AAC9-4399-A041-DB811853A307}" name="Comment" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{B5BF2792-AFDE-4511-AC5C-103973296B4C}" name="Vendor" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{4C356EF8-5E6A-47E3-AC29-F7FA6D400AB4}" name="Vendor URL" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{2EF4C34F-8C72-400C-A3AB-D841563F0B2A}" name="ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3038,8 +3038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -4211,7 +4211,7 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
   <drawing r:id="rId6"/>
   <webPublishItems count="1">
-    <webPublishItem id="13607" divId="BOM_XYHT_13607" sourceType="sheet" destinationFile="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/BOM_XYHT.htm" autoRepublish="1"/>
+    <webPublishItem id="13607" divId="BOM_XYHT_13607" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_XYHT.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
     <tablePart r:id="rId7"/>

--- a/bom/BOM_XYHT.xlsx
+++ b/bom/BOM_XYHT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3AAE3C-1716-492B-A688-B1F08E26D1E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="114_{C1372375-0E67-4011-8672-19C44A39A0D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E36E7666-34A3-46B6-9DFE-1F3906315F8C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="177">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -332,9 +332,6 @@
   </si>
   <si>
     <t>AliExpress</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/33006421501.html?spm=a2g0s.9042311.0.0.3e4d4c4dQtB9Y8</t>
   </si>
   <si>
     <t>37ae3e0660b16d0dba47ce09569758c1</t>
@@ -3038,8 +3035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -3059,13 +3056,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -3074,16 +3071,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -3097,7 +3094,7 @@
     </row>
     <row r="2" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>8</v>
@@ -3124,7 +3121,7 @@
     </row>
     <row r="3" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>8</v>
@@ -3151,7 +3148,7 @@
     </row>
     <row r="4" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>8</v>
@@ -3175,7 +3172,7 @@
     </row>
     <row r="5" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>8</v>
@@ -3199,7 +3196,7 @@
     </row>
     <row r="6" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>8</v>
@@ -3223,7 +3220,7 @@
     </row>
     <row r="7" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>8</v>
@@ -3250,7 +3247,7 @@
     </row>
     <row r="8" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>8</v>
@@ -3277,7 +3274,7 @@
     </row>
     <row r="9" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>8</v>
@@ -3297,31 +3294,26 @@
       <c r="H9" s="9">
         <v>1</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="11"/>
+      <c r="L9" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>8</v>
@@ -3331,24 +3323,24 @@
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>8</v>
@@ -3358,24 +3350,24 @@
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>8</v>
@@ -3385,24 +3377,24 @@
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>8</v>
@@ -3412,24 +3404,24 @@
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>8</v>
@@ -3439,24 +3431,24 @@
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>8</v>
@@ -3466,15 +3458,15 @@
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>13</v>
@@ -3498,10 +3490,10 @@
     </row>
     <row r="17" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>25</v>
@@ -3519,13 +3511,13 @@
         <v>16</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>103</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>28</v>
@@ -3533,10 +3525,10 @@
     </row>
     <row r="18" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>40</v>
@@ -3560,10 +3552,10 @@
     </row>
     <row r="19" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>44</v>
@@ -3587,10 +3579,10 @@
     </row>
     <row r="20" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>48</v>
@@ -3614,10 +3606,10 @@
     </row>
     <row r="21" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>52</v>
@@ -3641,10 +3633,10 @@
     </row>
     <row r="22" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>56</v>
@@ -3668,10 +3660,10 @@
     </row>
     <row r="23" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>68</v>
@@ -3695,10 +3687,10 @@
     </row>
     <row r="24" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>76</v>
@@ -3722,10 +3714,10 @@
     </row>
     <row r="25" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>80</v>
@@ -3749,10 +3741,10 @@
     </row>
     <row r="26" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>84</v>
@@ -3776,19 +3768,19 @@
     </row>
     <row r="27" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>160</v>
-      </c>
       <c r="C27" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>8</v>
@@ -3798,12 +3790,12 @@
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>31</v>
@@ -3821,10 +3813,10 @@
         <v>1</v>
       </c>
       <c r="J28" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>32</v>
@@ -3832,7 +3824,7 @@
     </row>
     <row r="29" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>31</v>
@@ -3850,13 +3842,13 @@
         <v>1</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>35</v>
@@ -3864,7 +3856,7 @@
     </row>
     <row r="30" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>31</v>
@@ -3885,10 +3877,10 @@
         <v>1</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>39</v>
@@ -3896,7 +3888,7 @@
     </row>
     <row r="31" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>31</v>
@@ -3917,10 +3909,10 @@
         <v>1</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>63</v>
@@ -3928,7 +3920,7 @@
     </row>
     <row r="32" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>31</v>
@@ -3949,10 +3941,10 @@
         <v>1</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>67</v>
@@ -3960,7 +3952,7 @@
     </row>
     <row r="33" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>31</v>
@@ -3981,10 +3973,10 @@
         <v>1</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>95</v>
@@ -3992,7 +3984,7 @@
     </row>
     <row r="34" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>31</v>
@@ -4013,10 +4005,10 @@
         <v>1</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>99</v>
@@ -4024,19 +4016,19 @@
     </row>
     <row r="35" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>31</v>
@@ -4045,27 +4037,27 @@
         <v>1</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>31</v>
@@ -4074,30 +4066,30 @@
         <v>1</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>31</v>
@@ -4106,27 +4098,27 @@
         <v>1</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>31</v>
@@ -4135,24 +4127,24 @@
         <v>1</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>31</v>
@@ -4161,27 +4153,27 @@
         <v>1</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>31</v>
@@ -4190,31 +4182,30 @@
         <v>1</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K28" r:id="rId2" xr:uid="{A8F9CE4D-E3AD-4E66-9F48-CB200B2D055B}"/>
-    <hyperlink ref="K29:K40" r:id="rId3" display="https://www.thingiverse.com/thing:4402495" xr:uid="{EA1BCF82-D473-4FC1-8B84-3A79910D6022}"/>
-    <hyperlink ref="K17" r:id="rId4" xr:uid="{B721F377-2B85-4639-8C68-33703738BEE7}"/>
+    <hyperlink ref="K28" r:id="rId1" xr:uid="{A8F9CE4D-E3AD-4E66-9F48-CB200B2D055B}"/>
+    <hyperlink ref="K29:K40" r:id="rId2" display="https://www.thingiverse.com/thing:4402495" xr:uid="{EA1BCF82-D473-4FC1-8B84-3A79910D6022}"/>
+    <hyperlink ref="K17" r:id="rId3" xr:uid="{B721F377-2B85-4639-8C68-33703738BEE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <drawing r:id="rId5"/>
   <webPublishItems count="1">
     <webPublishItem id="13607" divId="BOM_XYHT_13607" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_XYHT.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/bom/BOM_XYHT.xlsx
+++ b/bom/BOM_XYHT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="114_{C1372375-0E67-4011-8672-19C44A39A0D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E36E7666-34A3-46B6-9DFE-1F3906315F8C}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="114_{C1372375-0E67-4011-8672-19C44A39A0D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{796EFE6F-5807-44D6-B3F6-144488DCF532}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="188">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -551,13 +551,102 @@
   </si>
   <si>
     <t>Default (can be trimmed if too long)</t>
+  </si>
+  <si>
+    <t>HT - XY Gantry was created to accomodate Gates 2GT Pulleys which are 10 mm thick</t>
+  </si>
+  <si>
+    <t>*Length defined by Frame Calculator: https://miragec79.github.io/HevORT/framecalculator.html</t>
+  </si>
+  <si>
+    <t>3mm Bore: https://www.aliexpress.com/item/4000040551804.html?spm=a2g0s.9042311.0.0.2e6d4c4d7eSBhP</t>
+  </si>
+  <si>
+    <t>6*</t>
+  </si>
+  <si>
+    <t>* Required if using 5mm bore idler pulleys at all locations</t>
+  </si>
+  <si>
+    <t>6*
+or
+(4 x 5mm)
++ (2 X 3mm)</t>
+  </si>
+  <si>
+    <t>4*
+4X5mm + bushings
+or
+4X3mm without bushing</t>
+  </si>
+  <si>
+    <t>Aliexpress (Mellow Store recommended for 3mm version)</t>
+  </si>
+  <si>
+    <t>1*</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Gates 2GT pulleys are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10mm in height</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and have 5mm bore.  
+You can order 3mm version of these pulleys from Mellow Store on Aliexpress:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Gates 2GT pulleys are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10mm in height </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and have 5mm bore.  
+You can order 3mm version of these pulleys from Mellow Store on Aliexpress:
+https://www.aliexpress.com/item/4000040551804.html?spm=a2g0s.9042311.0.0.2e6d4c4d7eSBhP</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,6 +660,97 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -589,6 +769,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -596,16 +777,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <i/>
       <sz val="14"/>
-      <color theme="0"/>
+      <color theme="6" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -619,30 +793,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="10"/>
+      <color theme="6" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,8 +822,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EC4E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -724,6 +897,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -732,28 +957,40 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -761,14 +998,77 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -776,54 +1076,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -838,7 +1090,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -846,7 +1098,20 @@
         <outline val="0"/>
         <shadow val="0"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <name val="Calibri"/>
         <family val="2"/>
       </font>
@@ -854,6 +1119,7 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -864,10 +1130,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -878,7 +1145,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -886,7 +1153,7 @@
         <outline val="0"/>
         <shadow val="0"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="11"/>
         <name val="Calibri"/>
         <family val="2"/>
       </font>
@@ -898,7 +1165,43 @@
         <outline val="0"/>
         <shadow val="0"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <name val="Calibri"/>
         <family val="2"/>
       </font>
@@ -911,7 +1214,7 @@
         <outline val="0"/>
         <shadow val="0"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="11"/>
         <name val="Calibri"/>
         <family val="2"/>
       </font>
@@ -924,7 +1227,7 @@
         <outline val="0"/>
         <shadow val="0"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="11"/>
         <name val="Calibri"/>
         <family val="2"/>
       </font>
@@ -936,7 +1239,7 @@
         <outline val="0"/>
         <shadow val="0"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="11"/>
         <name val="Calibri"/>
         <family val="2"/>
       </font>
@@ -948,7 +1251,7 @@
         <outline val="0"/>
         <shadow val="0"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="11"/>
         <name val="Calibri"/>
         <family val="2"/>
       </font>
@@ -972,15 +1275,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1003,8 +1306,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="320675"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="674461"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1016,15 +1319,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1047,8 +1350,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="1762125"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="2062390"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1060,15 +1363,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1091,8 +1394,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="3203575"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="20105461"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1104,15 +1407,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1135,8 +1438,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="4645025"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="3450318"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1148,15 +1451,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1179,8 +1482,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="6086475"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="4838247"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1192,15 +1495,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1223,8 +1526,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="7527925"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="6226175"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1236,15 +1539,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1267,8 +1570,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="8969375"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="21493390"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1280,15 +1583,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1311,8 +1614,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="10410825"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="36760604"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1324,15 +1627,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1355,8 +1658,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="11852275"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="38148532"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1368,15 +1671,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1399,8 +1702,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="13293725"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="39536461"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1412,15 +1715,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1443,8 +1746,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="14735175"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="22881318"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1456,15 +1759,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1487,8 +1790,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="16176625"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="24269247"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1500,15 +1803,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1531,8 +1834,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="17618075"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="25657175"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1544,15 +1847,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1575,8 +1878,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="19059525"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="27045104"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1588,15 +1891,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1619,8 +1922,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="20500975"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="28433032"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1632,15 +1935,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1663,8 +1966,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="21942425"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="40924390"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1676,15 +1979,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1707,8 +2010,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="23383875"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="42312318"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1720,15 +2023,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1751,8 +2054,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="24825325"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="29820961"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1764,15 +2067,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1795,8 +2098,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="26266775"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="7614104"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1808,15 +2111,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1839,8 +2142,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="27708225"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="31208890"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1852,15 +2155,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1883,8 +2186,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="29149675"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="32596818"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1896,15 +2199,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1927,8 +2230,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="30591125"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="33984747"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1940,15 +2243,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1971,8 +2274,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="32032575"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="9002032"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1984,15 +2287,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2015,8 +2318,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="33474025"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="43700247"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2028,15 +2331,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2059,8 +2362,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="34915475"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="45088175"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2072,15 +2375,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2103,8 +2406,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="36356925"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="10389961"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2116,15 +2419,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2147,8 +2450,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="37798375"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="46476104"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2160,15 +2463,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2191,8 +2494,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="39239825"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="47864032"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2204,15 +2507,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2235,8 +2538,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="40681275"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="49251961"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2248,15 +2551,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2279,8 +2582,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="42122725"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="50639890"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2292,15 +2595,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2323,8 +2626,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="43564175"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="52027818"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2336,15 +2639,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2367,8 +2670,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="45005625"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="11777890"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2380,15 +2683,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2411,8 +2714,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="46447075"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="13165818"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2424,15 +2727,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2455,8 +2758,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="47888525"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="14553747"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2468,15 +2771,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2499,8 +2802,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="49329975"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="15941675"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2512,15 +2815,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2543,8 +2846,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="50771425"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="17329604"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2556,15 +2859,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2587,8 +2890,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="52212875"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="18717532"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2600,15 +2903,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2631,8 +2934,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="53654325"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="53415747"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2644,15 +2947,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>190954</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2675,8 +2978,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746125" y="55095775"/>
-          <a:ext cx="1174750" cy="1174750"/>
+          <a:off x="3334204" y="35372675"/>
+          <a:ext cx="952046" cy="952046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2689,24 +2992,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{152B1C96-06A9-4A39-A7DD-C10FEE983218}" name="Table1" displayName="Table1" ref="A1:L40" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L40" xr:uid="{ADCCACAD-FFF4-4C80-9E4B-5B02F6B935BF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L40">
-    <sortCondition ref="B1:B40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{152B1C96-06A9-4A39-A7DD-C10FEE983218}" name="Table1" displayName="Table1" ref="A1:L41" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L41" xr:uid="{ADCCACAD-FFF4-4C80-9E4B-5B02F6B935BF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L41">
+    <sortCondition ref="B1:B41"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{0D6BA3BA-9A73-4FC9-8B94-9487BDB52017}" name="SubAssy" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{DA57673C-3F46-4534-AD09-5BF5B37DEF7D}" name="Category" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{D7730DD7-70DC-4FBA-A6EC-20D3250851EF}" name="Item" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{03B562F9-795E-4CAC-A536-18823EB43366}" name="Thumbnail" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{21E95E5F-0EC1-40C4-A231-8EA71F877635}" name="Part Name" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{9464E849-52AD-4520-BE94-4A6717D9E053}" name="Part Description" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{73CFEB50-853F-4404-B7DC-70BAA6AA9826}" name="Make/Buy" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{E7650E62-A26B-4947-9DAD-4D23D726600B}" name="QTY" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{65AA2DD6-AAC9-4399-A041-DB811853A307}" name="Comment" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{B5BF2792-AFDE-4511-AC5C-103973296B4C}" name="Vendor" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{4C356EF8-5E6A-47E3-AC29-F7FA6D400AB4}" name="Vendor URL" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{2EF4C34F-8C72-400C-A3AB-D841563F0B2A}" name="ID" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{21E95E5F-0EC1-40C4-A231-8EA71F877635}" name="Part Name" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{9464E849-52AD-4520-BE94-4A6717D9E053}" name="Part Description" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{73CFEB50-853F-4404-B7DC-70BAA6AA9826}" name="Make/Buy" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{E7650E62-A26B-4947-9DAD-4D23D726600B}" name="QTY" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{65AA2DD6-AAC9-4399-A041-DB811853A307}" name="Comment" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{B5BF2792-AFDE-4511-AC5C-103973296B4C}" name="Vendor" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{4C356EF8-5E6A-47E3-AC29-F7FA6D400AB4}" name="Vendor URL" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{2EF4C34F-8C72-400C-A3AB-D841563F0B2A}" name="ID" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3033,1170 +3336,1281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="8" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="38.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="38.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="53.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="12.140625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="20" style="9" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="29" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.85546875" style="23" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="53.5703125" style="23" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="9" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H3" s="34">
         <v>2</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="4" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="4" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H4" s="34">
         <v>2</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="4" t="s">
+      <c r="I4" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H5" s="34">
         <v>1</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="4" t="s">
+      <c r="I5" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="6" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H6" s="34">
         <v>1</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="4" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="7" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H7" s="34">
         <v>1</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="4" t="s">
+      <c r="I7" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="8" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F8" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H8" s="34">
         <v>2</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="4" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H9" s="34">
         <v>2</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="4" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="10" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H10" s="34">
         <v>1</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="4" t="s">
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="11" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E11" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F11" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H11" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="34">
+        <v>2</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="34">
+        <v>49</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="34">
+        <v>16</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="34">
+        <v>4</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="34">
+        <v>27</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="34">
+        <v>27</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="34">
+        <v>4</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="34">
+        <v>3</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="34">
+        <v>6</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="34">
+        <v>6</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="34">
+        <v>2</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="34">
+        <v>2</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="34">
         <v>1</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="4" t="s">
-        <v>123</v>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="14" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="29" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="9">
-        <v>2</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="4" t="s">
-        <v>127</v>
+      <c r="B29" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="34">
+        <v>1</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="30" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="9">
-        <v>6</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="4" t="s">
-        <v>131</v>
+      <c r="B30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="34">
+        <v>1</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="31" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="9">
-        <v>4</v>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="4" t="s">
-        <v>135</v>
+      <c r="B31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="34">
+        <v>1</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="32" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="9">
-        <v>6</v>
-      </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="4" t="s">
-        <v>139</v>
+      <c r="B32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="34">
+        <v>1</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="33" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="B33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="34">
         <v>1</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="4" t="s">
-        <v>143</v>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="34" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="9">
-        <v>49</v>
-      </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="4" t="s">
-        <v>16</v>
+      <c r="B34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="34">
+        <v>1</v>
+      </c>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="35" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="9">
-        <v>16</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>28</v>
+      <c r="B35" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="34">
+        <v>1</v>
+      </c>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="36" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="9">
-        <v>4</v>
-      </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="4" t="s">
-        <v>43</v>
+      <c r="B36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="34">
+        <v>1</v>
+      </c>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="37" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="9">
-        <v>27</v>
-      </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="4" t="s">
-        <v>47</v>
+      <c r="B37" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="34">
+        <v>1</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="38" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="9">
-        <v>27</v>
-      </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="4" t="s">
-        <v>51</v>
+      <c r="B38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="34">
+        <v>1</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="39" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="9">
-        <v>4</v>
-      </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="4" t="s">
-        <v>55</v>
+      <c r="B39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="34">
+        <v>1</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="40" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="9">
-        <v>3</v>
-      </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="4" t="s">
-        <v>59</v>
+      <c r="B40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="28"/>
+      <c r="G40" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="34">
+        <v>1</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="41" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="9">
-        <v>6</v>
-      </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="9">
-        <v>6</v>
-      </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="9">
-        <v>2</v>
-      </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="9">
-        <v>2</v>
-      </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="9">
+      <c r="B41" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="34">
         <v>1</v>
       </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="9">
-        <v>1</v>
-      </c>
-      <c r="J28" s="4" t="s">
+      <c r="I41" s="15"/>
+      <c r="J41" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="9">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="9">
-        <v>1</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="9">
-        <v>1</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="9">
-        <v>1</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="9">
-        <v>1</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="9">
-        <v>1</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="9">
-        <v>1</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="9">
-        <v>1</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="9">
-        <v>1</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="9">
-        <v>1</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="9">
-        <v>1</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="9">
-        <v>1</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K40" s="11" t="s">
+      <c r="K41" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L41" s="14" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K28" r:id="rId1" xr:uid="{A8F9CE4D-E3AD-4E66-9F48-CB200B2D055B}"/>
-    <hyperlink ref="K29:K40" r:id="rId2" display="https://www.thingiverse.com/thing:4402495" xr:uid="{EA1BCF82-D473-4FC1-8B84-3A79910D6022}"/>
-    <hyperlink ref="K17" r:id="rId3" xr:uid="{B721F377-2B85-4639-8C68-33703738BEE7}"/>
+    <hyperlink ref="K29" r:id="rId1" xr:uid="{A8F9CE4D-E3AD-4E66-9F48-CB200B2D055B}"/>
+    <hyperlink ref="K30:K41" r:id="rId2" display="https://www.thingiverse.com/thing:4402495" xr:uid="{EA1BCF82-D473-4FC1-8B84-3A79910D6022}"/>
+    <hyperlink ref="K18" r:id="rId3" xr:uid="{B721F377-2B85-4639-8C68-33703738BEE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>

--- a/bom/BOM_XYHT.xlsx
+++ b/bom/BOM_XYHT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="114_{C1372375-0E67-4011-8672-19C44A39A0D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{796EFE6F-5807-44D6-B3F6-144488DCF532}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="114_{C1372375-0E67-4011-8672-19C44A39A0D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D9885B71-AB1D-4650-9B1D-BC6CD1BC0B14}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="193">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -103,9 +103,6 @@
     <t>M3X2020_T-Nut</t>
   </si>
   <si>
-    <t>Nut, TSlot - M3X2020</t>
-  </si>
-  <si>
     <t>069175e752a89b48639d7e8c4b4fa7f8</t>
   </si>
   <si>
@@ -545,9 +542,6 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/32917702848.html?spm=a2g0s.9042311.0.0.10194c4dtWXsMc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qty 16 based on X&amp;Y Print size at 315.  Add Qty2 for every additional 5cm of Y axis over 315mm. </t>
   </si>
   <si>
     <t>Default (can be trimmed if too long)</t>
@@ -638,6 +632,40 @@
 https://www.aliexpress.com/item/4000040551804.html?spm=a2g0s.9042311.0.0.2e6d4c4d7eSBhP</t>
     </r>
   </si>
+  <si>
+    <t>ZR_V2</t>
+  </si>
+  <si>
+    <t>Qty 16 based on X&amp;Y Print size at 315.  Add Qty2 (one per Y side) for every additional 5cm of Y axis over 315mm.  (one every 2 holes)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>M3X3030_TSlot_Nut</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nut, TSlot - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M3X3030 for Y Axis</t>
+    </r>
+  </si>
+  <si>
+    <t>Qty 8 based on X&amp;Y Print size at 315.  Add Qty1 for every additional 5cm of Y axis over 315mm.  (one every two holes)</t>
+  </si>
+  <si>
+    <t>Nut, TSlot - M3X2020 For X Axis</t>
+  </si>
 </sst>
 </file>
 
@@ -646,7 +674,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,6 +836,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -829,7 +887,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -949,6 +1007,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -957,7 +1030,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1016,9 +1089,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,12 +1140,81 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1091,18 +1230,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1144,42 +1271,6 @@
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1540,13 +1631,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1584,13 +1675,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1628,13 +1719,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1672,13 +1763,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1716,13 +1807,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1760,13 +1851,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1804,13 +1895,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1848,13 +1939,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1892,13 +1983,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1936,13 +2027,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1980,13 +2071,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2024,13 +2115,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2112,13 +2203,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2156,13 +2247,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2200,13 +2291,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2288,13 +2379,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2332,13 +2423,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2420,13 +2511,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2464,13 +2555,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2508,13 +2599,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2552,13 +2643,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2596,13 +2687,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2904,13 +2995,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2948,13 +3039,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190954</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>198211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>1150257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2988,28 +3079,72 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209552</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1187939</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1135888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40" descr="thumbnail_52.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE50E0DB-7A6D-4CF1-83E6-AF14FDFECAA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571752" y="21443950"/>
+          <a:ext cx="959337" cy="932688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{152B1C96-06A9-4A39-A7DD-C10FEE983218}" name="Table1" displayName="Table1" ref="A1:L41" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L41" xr:uid="{ADCCACAD-FFF4-4C80-9E4B-5B02F6B935BF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L41">
-    <sortCondition ref="B1:B41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{152B1C96-06A9-4A39-A7DD-C10FEE983218}" name="Table1" displayName="Table1" ref="A1:L42" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L42" xr:uid="{ADCCACAD-FFF4-4C80-9E4B-5B02F6B935BF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L42">
+    <sortCondition ref="B1:B42"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{0D6BA3BA-9A73-4FC9-8B94-9487BDB52017}" name="SubAssy" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{DA57673C-3F46-4534-AD09-5BF5B37DEF7D}" name="Category" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{D7730DD7-70DC-4FBA-A6EC-20D3250851EF}" name="Item" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{03B562F9-795E-4CAC-A536-18823EB43366}" name="Thumbnail" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{21E95E5F-0EC1-40C4-A231-8EA71F877635}" name="Part Name" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{9464E849-52AD-4520-BE94-4A6717D9E053}" name="Part Description" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{73CFEB50-853F-4404-B7DC-70BAA6AA9826}" name="Make/Buy" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{E7650E62-A26B-4947-9DAD-4D23D726600B}" name="QTY" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{65AA2DD6-AAC9-4399-A041-DB811853A307}" name="Comment" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{B5BF2792-AFDE-4511-AC5C-103973296B4C}" name="Vendor" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{4C356EF8-5E6A-47E3-AC29-F7FA6D400AB4}" name="Vendor URL" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{2EF4C34F-8C72-400C-A3AB-D841563F0B2A}" name="ID" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{21E95E5F-0EC1-40C4-A231-8EA71F877635}" name="Part Name" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{9464E849-52AD-4520-BE94-4A6717D9E053}" name="Part Description" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{73CFEB50-853F-4404-B7DC-70BAA6AA9826}" name="Make/Buy" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{E7650E62-A26B-4947-9DAD-4D23D726600B}" name="QTY" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{65AA2DD6-AAC9-4399-A041-DB811853A307}" name="Comment" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{B5BF2792-AFDE-4511-AC5C-103973296B4C}" name="Vendor" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{4C356EF8-5E6A-47E3-AC29-F7FA6D400AB4}" name="Vendor URL" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{2EF4C34F-8C72-400C-A3AB-D841563F0B2A}" name="ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3336,56 +3471,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" style="21" customWidth="1"/>
     <col min="4" max="4" width="20" style="9" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" style="29" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.85546875" style="23" customWidth="1"/>
-    <col min="10" max="10" width="37.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53.5703125" style="23" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="9" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="9"/>
+    <col min="5" max="5" width="35.453125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="32.7265625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.81640625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="37.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="53.54296875" style="22" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" style="9" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>3</v>
@@ -3397,24 +3532,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="33"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="11"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>158</v>
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>8</v>
@@ -3422,16 +3557,16 @@
       <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="33">
         <v>2</v>
       </c>
       <c r="I3" s="15"/>
@@ -3441,9 +3576,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>158</v>
+    <row r="4" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
@@ -3451,20 +3586,20 @@
       <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="33">
         <v>2</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="16"/>
@@ -3472,28 +3607,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>158</v>
+    <row r="5" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="33">
         <v>1</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="16"/>
@@ -3501,24 +3636,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>158</v>
+    <row r="6" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="33">
         <v>1</v>
       </c>
       <c r="I6" s="15"/>
@@ -3528,28 +3663,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>158</v>
+    <row r="7" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="33">
         <v>1</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="16"/>
@@ -3557,305 +3692,305 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>158</v>
+    <row r="8" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="F8" s="27" t="s">
         <v>73</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>74</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="33">
         <v>2</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="16"/>
       <c r="L8" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>158</v>
+    <row r="9" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>89</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>90</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="33">
         <v>2</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="16"/>
       <c r="L9" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>158</v>
+    <row r="10" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>101</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>102</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="33">
         <v>1</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="18"/>
       <c r="L10" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>158</v>
+    <row r="11" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="F11" s="27" t="s">
         <v>121</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>122</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="34" t="s">
-        <v>185</v>
+      <c r="H11" s="33" t="s">
+        <v>183</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="16"/>
       <c r="L11" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>158</v>
+    <row r="12" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="F12" s="27" t="s">
         <v>125</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>126</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="33">
         <v>2</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="16"/>
       <c r="L12" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>158</v>
+    <row r="13" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="F13" s="27" t="s">
         <v>129</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>130</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>184</v>
-      </c>
       <c r="K13" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>158</v>
+    <row r="14" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="F14" s="27" t="s">
         <v>133</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>134</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="35" t="s">
-        <v>183</v>
+      <c r="H14" s="34" t="s">
+        <v>181</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>158</v>
+    <row r="15" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="F15" s="27" t="s">
         <v>137</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>138</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="35" t="s">
-        <v>180</v>
+      <c r="H15" s="34" t="s">
+        <v>178</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="16"/>
       <c r="L15" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>158</v>
+    <row r="16" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="F16" s="27" t="s">
         <v>141</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>142</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="34" t="s">
-        <v>185</v>
+      <c r="H16" s="33" t="s">
+        <v>183</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="16"/>
       <c r="L16" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="C17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="33">
         <v>49</v>
       </c>
       <c r="I17" s="15"/>
@@ -3865,761 +4000,798 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:12" s="37" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="C18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="33">
+        <v>24</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="34">
-        <v>16</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>42</v>
+      <c r="F19" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="34">
-        <v>4</v>
-      </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
+      <c r="H19" s="33">
+        <v>8</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>173</v>
+      </c>
       <c r="L19" s="14" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+    <row r="20" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="C20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>46</v>
+        <v>67</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="34">
-        <v>27</v>
+      <c r="H20" s="33">
+        <v>4</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="16"/>
       <c r="L20" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+    <row r="21" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="C21" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>50</v>
+        <v>71</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="33">
         <v>27</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="16"/>
       <c r="L21" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="C22" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>54</v>
+        <v>75</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="34">
-        <v>4</v>
+      <c r="H22" s="33">
+        <v>27</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="16"/>
       <c r="L22" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+    <row r="23" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="C23" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>58</v>
+        <v>79</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>53</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="34">
-        <v>3</v>
+      <c r="H23" s="33">
+        <v>4</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="16"/>
       <c r="L23" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+    <row r="24" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="C24" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>70</v>
+        <v>83</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="34">
-        <v>6</v>
+      <c r="H24" s="33">
+        <v>3</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="16"/>
       <c r="L24" s="14" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+    <row r="25" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="C25" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>78</v>
+        <v>87</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="33">
         <v>6</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
       <c r="K25" s="16"/>
       <c r="L25" s="14" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+    <row r="26" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="C26" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>82</v>
+        <v>91</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="34">
-        <v>2</v>
+      <c r="H26" s="33">
+        <v>6</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="16"/>
       <c r="L26" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+    <row r="27" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="C27" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>86</v>
+        <v>95</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="33">
         <v>2</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="16"/>
       <c r="L27" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+    <row r="28" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="C28" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>150</v>
+        <v>99</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="34">
-        <v>1</v>
+      <c r="H28" s="33">
+        <v>2</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
       <c r="K28" s="16"/>
       <c r="L28" s="14" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+    <row r="29" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="33">
+        <v>1</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="33">
+        <v>1</v>
+      </c>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L30" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="28" t="s">
+    </row>
+    <row r="31" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="34">
+      <c r="C31" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="33">
         <v>1</v>
       </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="K29" s="18" t="s">
+      <c r="I31" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K31" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="L29" s="14" t="s">
-        <v>32</v>
+      <c r="L31" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="34">
-        <v>1</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="13" t="s">
+    <row r="32" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="F32" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="34">
-        <v>1</v>
-      </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>62</v>
-      </c>
       <c r="G32" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="34">
+        <v>30</v>
+      </c>
+      <c r="H32" s="33">
         <v>1</v>
       </c>
       <c r="I32" s="15"/>
       <c r="J32" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
-        <v>158</v>
+    <row r="33" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>66</v>
+        <v>117</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>61</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="34">
+        <v>30</v>
+      </c>
+      <c r="H33" s="33">
         <v>1</v>
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
-        <v>158</v>
+    <row r="34" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>94</v>
+        <v>119</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>65</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="34">
+        <v>30</v>
+      </c>
+      <c r="H34" s="33">
         <v>1</v>
       </c>
       <c r="I34" s="15"/>
       <c r="J34" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
-        <v>158</v>
+    <row r="35" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>98</v>
+        <v>123</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>93</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="34">
+        <v>30</v>
+      </c>
+      <c r="H35" s="33">
         <v>1</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
-        <v>158</v>
+    <row r="36" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>107</v>
+        <v>127</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>97</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="34">
+        <v>30</v>
+      </c>
+      <c r="H36" s="33">
         <v>1</v>
       </c>
       <c r="I36" s="15"/>
       <c r="J36" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
-        <v>158</v>
+    <row r="37" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>106</v>
+      </c>
       <c r="G37" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="34">
+        <v>30</v>
+      </c>
+      <c r="H37" s="33">
         <v>1</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
-        <v>158</v>
+    <row r="38" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>114</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="27"/>
       <c r="G38" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="34">
+        <v>30</v>
+      </c>
+      <c r="H38" s="33">
         <v>1</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
-        <v>158</v>
+    <row r="39" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="28"/>
+        <v>139</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>113</v>
+      </c>
       <c r="G39" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="34">
+        <v>30</v>
+      </c>
+      <c r="H39" s="33">
         <v>1</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
-        <v>158</v>
+    <row r="40" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="28"/>
+        <v>143</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" s="27"/>
       <c r="G40" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="34">
+        <v>30</v>
+      </c>
+      <c r="H40" s="33">
         <v>1</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
-        <v>158</v>
+    <row r="41" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>146</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" s="27"/>
       <c r="G41" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="34">
+        <v>30</v>
+      </c>
+      <c r="H41" s="33">
         <v>1</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>147</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="14" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="33">
+        <v>1</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K29" r:id="rId1" xr:uid="{A8F9CE4D-E3AD-4E66-9F48-CB200B2D055B}"/>
-    <hyperlink ref="K30:K41" r:id="rId2" display="https://www.thingiverse.com/thing:4402495" xr:uid="{EA1BCF82-D473-4FC1-8B84-3A79910D6022}"/>
-    <hyperlink ref="K18" r:id="rId3" xr:uid="{B721F377-2B85-4639-8C68-33703738BEE7}"/>
+    <hyperlink ref="K30" r:id="rId1" xr:uid="{A8F9CE4D-E3AD-4E66-9F48-CB200B2D055B}"/>
+    <hyperlink ref="K31:K42" r:id="rId2" display="https://www.thingiverse.com/thing:4402495" xr:uid="{EA1BCF82-D473-4FC1-8B84-3A79910D6022}"/>
+    <hyperlink ref="K19" r:id="rId3" xr:uid="{B721F377-2B85-4639-8C68-33703738BEE7}"/>
+    <hyperlink ref="K18" r:id="rId4" xr:uid="{2AE10E57-8CF2-40D0-8B85-0CD2A3B940CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+  <drawing r:id="rId6"/>
   <webPublishItems count="1">
     <webPublishItem id="13607" divId="BOM_XYHT_13607" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_XYHT.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/bom/BOM_XYHT.xlsx
+++ b/bom/BOM_XYHT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="114_{C1372375-0E67-4011-8672-19C44A39A0D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D9885B71-AB1D-4650-9B1D-BC6CD1BC0B14}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="114_{C1372375-0E67-4011-8672-19C44A39A0D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{53834C96-B293-4C8E-8085-2D35942FF25A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="192">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -633,9 +633,6 @@
     </r>
   </si>
   <si>
-    <t>ZR_V2</t>
-  </si>
-  <si>
     <t>Qty 16 based on X&amp;Y Print size at 315.  Add Qty2 (one per Y side) for every additional 5cm of Y axis over 315mm.  (one every 2 holes)</t>
   </si>
   <si>
@@ -674,7 +671,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,14 +837,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="6" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1030,7 +1019,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1146,19 +1135,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3474,7 +3460,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -4001,8 +3987,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="37" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
-        <v>186</v>
+      <c r="A18" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>158</v>
@@ -4010,21 +3996,21 @@
       <c r="C18" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="41" t="s">
+      <c r="D18" s="38"/>
+      <c r="E18" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="F18" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="39" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="33">
         <v>24</v>
       </c>
-      <c r="I18" s="43" t="s">
-        <v>187</v>
+      <c r="I18" s="42" t="s">
+        <v>186</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>102</v>
@@ -4050,7 +4036,7 @@
         <v>26</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>8</v>
@@ -4058,8 +4044,8 @@
       <c r="H19" s="33">
         <v>8</v>
       </c>
-      <c r="I19" s="42" t="s">
-        <v>191</v>
+      <c r="I19" s="41" t="s">
+        <v>190</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>102</v>
@@ -4751,7 +4737,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E42" s="27" t="s">
         <v>144</v>

--- a/bom/BOM_XYHT.xlsx
+++ b/bom/BOM_XYHT.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3CD389-D4B0-4F30-95E2-843EAA928C82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7522A6CB-1173-4591-8869-46F66CA2B0EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="165">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -623,6 +633,13 @@
   </si>
   <si>
     <t>XY_EndStop_Flag_V1</t>
+  </si>
+  <si>
+    <t>Included in 
+HDWKit_XYHT</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -790,7 +807,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -800,6 +817,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,7 +931,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1015,13 +1038,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1053,6 +1096,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3142,20 +3188,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56B8922B-4313-44FC-AB64-E350D1B42865}" name="Table1" displayName="Table1" ref="A1:K47" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
-  <autoFilter ref="A1:K47" xr:uid="{56691EE1-69D5-4B98-8F4E-8442899A38CB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56B8922B-4313-44FC-AB64-E350D1B42865}" name="Table1" displayName="Table1" ref="A1:L47" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13">
+  <autoFilter ref="A1:L47" xr:uid="{56691EE1-69D5-4B98-8F4E-8442899A38CB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L47">
     <sortCondition ref="B2:B47"/>
     <sortCondition ref="E2:E47"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5E83EB9F-5D79-4EF7-BFF4-AC4DACE6D0F5}" name="SubAssy" dataDxfId="0"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{5E83EB9F-5D79-4EF7-BFF4-AC4DACE6D0F5}" name="SubAssy" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{EF7473EF-0D98-429E-B961-64E9BCAA8327}" name="Category" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{9D5D91E7-3422-460E-8D66-84ABDD68FC14}" name="Item" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{3B20A3A2-6488-4A11-BA8C-60411F50AF08}" name="Thumbnail" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{CE5B2B5F-D0A6-47B0-BFF0-90DC345DBBC3}" name="Part Name" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{31673555-1A8D-43B0-AE74-3428FFEE55E7}" name="Part Description" dataDxfId="6"/>
     <tableColumn id="7" xr3:uid="{9FD8A355-C777-4ADA-8687-5E409EFC2895}" name="Make/Buy" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{77BAFA95-413F-46B2-BF39-C18E6ED49C84}" name="Included in _x000a_HDWKit_XYHT" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{4890B1E8-450A-4D65-BBC1-157562D55A53}" name="QTY" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{A5636ECD-04C7-4981-B309-C915A2AFAD84}" name="Comment" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{7F9E442A-32F0-47A8-A91F-A92DC1BD3A8C}" name="Vendor" dataDxfId="2"/>
@@ -3486,10 +3533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="97" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3500,15 +3547,15 @@
     <col min="4" max="4" width="19.36328125" style="8" customWidth="1"/>
     <col min="5" max="5" width="43.36328125" style="8" customWidth="1"/>
     <col min="6" max="6" width="39" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="21.81640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="51.453125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="36.6328125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="8"/>
+    <col min="7" max="8" width="16.36328125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="21.81640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="51.453125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="36.6328125" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
@@ -3530,20 +3577,23 @@
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>124</v>
       </c>
@@ -3563,16 +3613,17 @@
       <c r="G2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13"/>
+      <c r="I2" s="14">
         <v>1</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="16"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>124</v>
       </c>
@@ -3592,16 +3643,17 @@
       <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13"/>
+      <c r="I3" s="14">
         <v>1</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="J3" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="16"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>124</v>
       </c>
@@ -3621,16 +3673,17 @@
       <c r="G4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="J4" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="16"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="16"/>
     </row>
-    <row r="5" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>124</v>
       </c>
@@ -3650,20 +3703,21 @@
       <c r="G5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="13"/>
+      <c r="I5" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="J5" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="K5" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="L5" s="24" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
         <v>124</v>
       </c>
@@ -3683,20 +3737,21 @@
       <c r="G6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="13"/>
+      <c r="I6" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="J6" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="K6" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="L6" s="24" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
         <v>124</v>
       </c>
@@ -3716,14 +3771,15 @@
       <c r="G7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13"/>
+      <c r="I7" s="14">
         <v>2</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="16"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="16"/>
     </row>
-    <row r="8" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
         <v>124</v>
       </c>
@@ -3743,16 +3799,17 @@
       <c r="G8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13"/>
+      <c r="I8" s="14">
         <v>1</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="J8" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="16"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="16"/>
     </row>
-    <row r="9" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
         <v>124</v>
       </c>
@@ -3772,16 +3829,17 @@
       <c r="G9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13"/>
+      <c r="I9" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="J9" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="16"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="16"/>
     </row>
-    <row r="10" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
         <v>124</v>
       </c>
@@ -3801,16 +3859,17 @@
       <c r="G10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13"/>
+      <c r="I10" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="J10" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="16"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="16"/>
     </row>
-    <row r="11" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
         <v>124</v>
       </c>
@@ -3830,16 +3889,17 @@
       <c r="G11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13"/>
+      <c r="I11" s="14">
         <v>1</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="J11" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="16"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
         <v>124</v>
       </c>
@@ -3859,14 +3919,17 @@
       <c r="G12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" s="14">
         <v>2</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="16"/>
     </row>
-    <row r="13" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
         <v>124</v>
       </c>
@@ -3886,14 +3949,15 @@
       <c r="G13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13"/>
+      <c r="I13" s="14">
         <v>2</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="16"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
         <v>124</v>
       </c>
@@ -3913,14 +3977,15 @@
       <c r="G14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13"/>
+      <c r="I14" s="14">
         <v>1</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="16"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="16"/>
     </row>
-    <row r="15" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>124</v>
       </c>
@@ -3940,16 +4005,17 @@
       <c r="G15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="13"/>
+      <c r="I15" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="J15" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="16"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="1:11" s="17" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" s="17" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
         <v>124</v>
       </c>
@@ -3968,14 +4034,17 @@
       <c r="G16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" s="26">
         <v>34</v>
       </c>
-      <c r="I16" s="18"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="27"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="27"/>
     </row>
-    <row r="17" spans="1:11" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
         <v>124</v>
       </c>
@@ -3995,20 +4064,23 @@
       <c r="G17" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="J17" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="K17" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="L17" s="18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="17" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" s="17" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
         <v>124</v>
       </c>
@@ -4027,20 +4099,23 @@
       <c r="G18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="J18" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="K18" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="L18" s="33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
         <v>124</v>
       </c>
@@ -4060,14 +4135,17 @@
       <c r="G19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" s="14">
         <v>12</v>
       </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="16"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
         <v>124</v>
       </c>
@@ -4087,14 +4165,17 @@
       <c r="G20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" s="14">
         <v>4</v>
       </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="16"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
         <v>124</v>
       </c>
@@ -4114,14 +4195,17 @@
       <c r="G21" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" s="14">
         <v>6</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="16"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="34" t="s">
         <v>124</v>
       </c>
@@ -4141,14 +4225,17 @@
       <c r="G22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" s="14">
         <v>2</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="16"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="34" t="s">
         <v>124</v>
       </c>
@@ -4168,14 +4255,17 @@
       <c r="G23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I23" s="14">
         <v>4</v>
       </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="16"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="16"/>
     </row>
-    <row r="24" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="34" t="s">
         <v>124</v>
       </c>
@@ -4195,14 +4285,17 @@
       <c r="G24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I24" s="14">
         <v>4</v>
       </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="16"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="16"/>
     </row>
-    <row r="25" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
         <v>124</v>
       </c>
@@ -4222,14 +4315,17 @@
       <c r="G25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" s="14">
         <v>25</v>
       </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="16"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="16"/>
     </row>
-    <row r="26" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
         <v>124</v>
       </c>
@@ -4249,14 +4345,17 @@
       <c r="G26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I26" s="14">
         <v>4</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="16"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="16"/>
     </row>
-    <row r="27" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
         <v>124</v>
       </c>
@@ -4276,14 +4375,17 @@
       <c r="G27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I27" s="14">
         <v>6</v>
       </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="16"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="34" t="s">
         <v>124</v>
       </c>
@@ -4303,14 +4405,17 @@
       <c r="G28" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" s="14">
         <v>2</v>
       </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="16"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="34" t="s">
         <v>124</v>
       </c>
@@ -4330,14 +4435,17 @@
       <c r="G29" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" s="14">
         <v>6</v>
       </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="16"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="16"/>
     </row>
-    <row r="30" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="34" t="s">
         <v>124</v>
       </c>
@@ -4357,14 +4465,17 @@
       <c r="G30" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I30" s="14">
         <v>1</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="16"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="16"/>
     </row>
-    <row r="31" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
         <v>124</v>
       </c>
@@ -4384,14 +4495,17 @@
       <c r="G31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I31" s="14">
         <v>3</v>
       </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="16"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="16"/>
     </row>
-    <row r="32" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="34" t="s">
         <v>124</v>
       </c>
@@ -4411,14 +4525,17 @@
       <c r="G32" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" s="14">
         <v>27</v>
       </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="16"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="16"/>
     </row>
-    <row r="33" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
         <v>124</v>
       </c>
@@ -4438,14 +4555,17 @@
       <c r="G33" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" s="14">
         <v>27</v>
       </c>
-      <c r="I33" s="15"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="16"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="16"/>
     </row>
-    <row r="34" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
         <v>124</v>
       </c>
@@ -4465,14 +4585,15 @@
       <c r="G34" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="13"/>
+      <c r="I34" s="14">
         <v>1</v>
       </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="16"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="16"/>
     </row>
-    <row r="35" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
         <v>124</v>
       </c>
@@ -4490,18 +4611,19 @@
       <c r="G35" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="13"/>
+      <c r="I35" s="14">
         <v>1</v>
       </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="18" t="s">
+      <c r="J35" s="15"/>
+      <c r="K35" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="K35" s="33" t="s">
+      <c r="L35" s="33" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
         <v>124</v>
       </c>
@@ -4519,18 +4641,19 @@
       <c r="G36" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="13"/>
+      <c r="I36" s="14">
         <v>1</v>
       </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="18" t="s">
+      <c r="J36" s="15"/>
+      <c r="K36" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="K36" s="33" t="s">
+      <c r="L36" s="33" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
         <v>124</v>
       </c>
@@ -4548,18 +4671,19 @@
       <c r="G37" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="13"/>
+      <c r="I37" s="14">
         <v>1</v>
       </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="18" t="s">
+      <c r="J37" s="15"/>
+      <c r="K37" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="K37" s="33" t="s">
+      <c r="L37" s="33" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
         <v>124</v>
       </c>
@@ -4579,18 +4703,19 @@
       <c r="G38" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="13"/>
+      <c r="I38" s="14">
         <v>1</v>
       </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="18" t="s">
+      <c r="J38" s="15"/>
+      <c r="K38" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="K38" s="33" t="s">
+      <c r="L38" s="33" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
         <v>124</v>
       </c>
@@ -4610,18 +4735,19 @@
       <c r="G39" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="13"/>
+      <c r="I39" s="14">
         <v>1</v>
       </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="18" t="s">
+      <c r="J39" s="15"/>
+      <c r="K39" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="K39" s="33" t="s">
+      <c r="L39" s="33" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
         <v>124</v>
       </c>
@@ -4641,18 +4767,19 @@
       <c r="G40" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="13"/>
+      <c r="I40" s="14">
         <v>1</v>
       </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="18" t="s">
+      <c r="J40" s="15"/>
+      <c r="K40" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="K40" s="33" t="s">
+      <c r="L40" s="33" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
         <v>124</v>
       </c>
@@ -4672,18 +4799,19 @@
       <c r="G41" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="13"/>
+      <c r="I41" s="14">
         <v>1</v>
       </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="18" t="s">
+      <c r="J41" s="15"/>
+      <c r="K41" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="K41" s="33" t="s">
+      <c r="L41" s="33" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
         <v>124</v>
       </c>
@@ -4703,18 +4831,19 @@
       <c r="G42" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="13"/>
+      <c r="I42" s="14">
         <v>1</v>
       </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="18" t="s">
+      <c r="J42" s="15"/>
+      <c r="K42" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="K42" s="33" t="s">
+      <c r="L42" s="33" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
         <v>124</v>
       </c>
@@ -4734,18 +4863,19 @@
       <c r="G43" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="13"/>
+      <c r="I43" s="14">
         <v>1</v>
       </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="18" t="s">
+      <c r="J43" s="15"/>
+      <c r="K43" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="K43" s="33" t="s">
+      <c r="L43" s="33" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="34" t="s">
         <v>124</v>
       </c>
@@ -4765,18 +4895,19 @@
       <c r="G44" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="13"/>
+      <c r="I44" s="14">
         <v>1</v>
       </c>
-      <c r="I44" s="15"/>
-      <c r="J44" s="18" t="s">
+      <c r="J44" s="15"/>
+      <c r="K44" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="K44" s="33" t="s">
+      <c r="L44" s="33" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="34" t="s">
         <v>124</v>
       </c>
@@ -4794,18 +4925,19 @@
       <c r="G45" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="13"/>
+      <c r="I45" s="14">
         <v>1</v>
       </c>
-      <c r="I45" s="15"/>
-      <c r="J45" s="18" t="s">
+      <c r="J45" s="15"/>
+      <c r="K45" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="K45" s="33" t="s">
+      <c r="L45" s="33" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="34" t="s">
         <v>124</v>
       </c>
@@ -4823,18 +4955,19 @@
       <c r="G46" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="13"/>
+      <c r="I46" s="14">
         <v>1</v>
       </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="18" t="s">
+      <c r="J46" s="15"/>
+      <c r="K46" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="K46" s="33" t="s">
+      <c r="L46" s="33" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
         <v>124</v>
       </c>
@@ -4852,35 +4985,36 @@
       <c r="G47" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="13"/>
+      <c r="I47" s="14">
         <v>1</v>
       </c>
-      <c r="I47" s="15"/>
-      <c r="J47" s="18" t="s">
+      <c r="J47" s="15"/>
+      <c r="K47" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="K47" s="33" t="s">
+      <c r="L47" s="33" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K18" r:id="rId1" xr:uid="{B0B3DD13-6213-4FB9-BB54-881AC31305A4}"/>
-    <hyperlink ref="K17" r:id="rId2" xr:uid="{6711905A-868B-4FFD-A438-52E4B92FC898}"/>
-    <hyperlink ref="K35" r:id="rId3" xr:uid="{2D062015-27F1-46B8-9006-274D5DD025ED}"/>
-    <hyperlink ref="K36" r:id="rId4" xr:uid="{962734AA-7F4B-4171-A799-FDDB7167C305}"/>
-    <hyperlink ref="K37" r:id="rId5" xr:uid="{E18AF08A-2C76-4061-82E9-6A3AF7DE9FC2}"/>
-    <hyperlink ref="K38" r:id="rId6" xr:uid="{B3990A57-6C8F-4C89-981D-C5E87EC8D9FA}"/>
-    <hyperlink ref="K39" r:id="rId7" xr:uid="{4B784599-3E15-454E-9AD0-1A63BD495F9E}"/>
-    <hyperlink ref="K40" r:id="rId8" xr:uid="{7653D046-B918-4E4B-AC7E-3C4BB0BBC22E}"/>
-    <hyperlink ref="K41" r:id="rId9" xr:uid="{D6B09751-2996-45C2-9742-143F1F18FEF0}"/>
-    <hyperlink ref="K42" r:id="rId10" xr:uid="{15330A4C-AFC7-46D3-8A71-EB55C12CCC8C}"/>
-    <hyperlink ref="K43" r:id="rId11" xr:uid="{316F21C6-682F-4F09-A6B3-A5BB1558400C}"/>
-    <hyperlink ref="K44" r:id="rId12" xr:uid="{14D38675-A6DE-4DCA-B32E-8559ED2D1642}"/>
-    <hyperlink ref="K45" r:id="rId13" xr:uid="{2AFF4EA3-0EB9-4FC7-BEB2-41A9B8A7878B}"/>
-    <hyperlink ref="K46" r:id="rId14" xr:uid="{A47AE3DF-6B99-4C7F-B7B5-94E9FEF1B5DD}"/>
-    <hyperlink ref="K47" r:id="rId15" xr:uid="{01156BE0-B91E-4D9C-BA6A-C6811CE07C83}"/>
+    <hyperlink ref="L18" r:id="rId1" xr:uid="{B0B3DD13-6213-4FB9-BB54-881AC31305A4}"/>
+    <hyperlink ref="L17" r:id="rId2" xr:uid="{6711905A-868B-4FFD-A438-52E4B92FC898}"/>
+    <hyperlink ref="L35" r:id="rId3" xr:uid="{2D062015-27F1-46B8-9006-274D5DD025ED}"/>
+    <hyperlink ref="L36" r:id="rId4" xr:uid="{962734AA-7F4B-4171-A799-FDDB7167C305}"/>
+    <hyperlink ref="L37" r:id="rId5" xr:uid="{E18AF08A-2C76-4061-82E9-6A3AF7DE9FC2}"/>
+    <hyperlink ref="L38" r:id="rId6" xr:uid="{B3990A57-6C8F-4C89-981D-C5E87EC8D9FA}"/>
+    <hyperlink ref="L39" r:id="rId7" xr:uid="{4B784599-3E15-454E-9AD0-1A63BD495F9E}"/>
+    <hyperlink ref="L40" r:id="rId8" xr:uid="{7653D046-B918-4E4B-AC7E-3C4BB0BBC22E}"/>
+    <hyperlink ref="L41" r:id="rId9" xr:uid="{D6B09751-2996-45C2-9742-143F1F18FEF0}"/>
+    <hyperlink ref="L42" r:id="rId10" xr:uid="{15330A4C-AFC7-46D3-8A71-EB55C12CCC8C}"/>
+    <hyperlink ref="L43" r:id="rId11" xr:uid="{316F21C6-682F-4F09-A6B3-A5BB1558400C}"/>
+    <hyperlink ref="L44" r:id="rId12" xr:uid="{14D38675-A6DE-4DCA-B32E-8559ED2D1642}"/>
+    <hyperlink ref="L45" r:id="rId13" xr:uid="{2AFF4EA3-0EB9-4FC7-BEB2-41A9B8A7878B}"/>
+    <hyperlink ref="L46" r:id="rId14" xr:uid="{A47AE3DF-6B99-4C7F-B7B5-94E9FEF1B5DD}"/>
+    <hyperlink ref="L47" r:id="rId15" xr:uid="{01156BE0-B91E-4D9C-BA6A-C6811CE07C83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId16"/>

--- a/bom/BOM_XYHT.xlsx
+++ b/bom/BOM_XYHT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7522A6CB-1173-4591-8869-46F66CA2B0EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB0DBB9-5836-42C5-A2A8-8A1280AD45A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="38380" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="129">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -47,63 +47,36 @@
     <t>Vendor URL</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Buy</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>M3X10_CapScrew_92290A115</t>
   </si>
   <si>
     <t>Screw, Cap - M3X10mm</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>TrackX_2020Profile</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>M3X2020_T-Nut</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>M3X8_CapScrew_92290A113</t>
   </si>
   <si>
     <t>Screw, Cap - M3X8mm</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Make</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>PulleyMount_REAR_LEFT_Body</t>
   </si>
   <si>
     <t>Pulley Mount Rear Left</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>M3_Nut_94150A325</t>
   </si>
   <si>
@@ -116,270 +89,168 @@
     <t>Nut, T-Slot - M6 for 3030 profile</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>M6X14_ButtonHeadScrew_92095A227</t>
   </si>
   <si>
     <t>Screw, ButtonHead - M6X14mm</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>M5_HexNut_94150A340</t>
   </si>
   <si>
     <t>Nut, Hex - M5</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>M5X30_CapScrew_92290A254</t>
   </si>
   <si>
     <t>Screw, Cap - M5x30mm</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>MotorBracket_RIGHT_Body V1.1</t>
   </si>
   <si>
     <t>Motor Bracket Right</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>MotorCover_BODY_RIGHT</t>
   </si>
   <si>
     <t>Motor Cover Rght</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>MR115ZZ_Bearing_7804K107</t>
   </si>
   <si>
     <t>Bearing, 5x11x4mm</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>M3X20_CapScrew_92290A122</t>
   </si>
   <si>
     <t>Screw, Cap - M3X20mm</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>M5X10_ButtonHeadScrew_97763A820</t>
   </si>
   <si>
     <t>Screw, ButtonHead - M5X10mm</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>M3X30_CapScrew_92290A126</t>
   </si>
   <si>
     <t>Screw, Cap - M3X30mm</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>NEMA17_E3D_High_Torque_48mm</t>
   </si>
   <si>
     <t>Stepper Motor - NEMA17X48mm</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>PulleyMount_FRONT_RIGHT_BodyV1.1</t>
   </si>
   <si>
     <t>Pulley Mount Front Right</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>Y_CarriageHT_RIGHT_Body (1)</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>M5X2020_T-Nut_91239A224</t>
   </si>
   <si>
     <t>Nut, T-Slot - M5 for 2020 profile</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>M3X6_CapScrew_92290A111</t>
   </si>
   <si>
     <t>Screw, Cap - M3X6mm</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>M3X16_CapScrew_92290A120</t>
   </si>
   <si>
     <t>Screw, Cap - M3X16mm</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>M3X25_CapScrew_92290A124</t>
   </si>
   <si>
     <t>Screw, Cap - M3X25mm</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>M5X18_ButtonHeadScrew_91239A241</t>
   </si>
   <si>
     <t>Screw, ButtonHead</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>Y_CarriageHT_LEFT_Body (1)</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>PulleyMount_FRONT_LEFT_BodyV1.1</t>
   </si>
   <si>
     <t>Pulley Mount Front Left</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>Opto endstop PM</t>
   </si>
   <si>
     <t>Optical End-Stop</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>HevORT Logo, Small</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>MotorBracket_LEFT_Body (1)</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>MotorCover_BODY_LEFT</t>
   </si>
   <si>
     <t>Motor Cover Left</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>HTLogoSMallFlame</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>HTLogoBigFlame</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>GT2 Timing Pulley 20T 6mm - Hole_5mm v4</t>
   </si>
   <si>
     <t>Pulley, Timming - 20tooth 6mmGT2, 5mm bore</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
     <t>Gates_2GT_20T_Toothed</t>
   </si>
   <si>
     <t>Pulley, Toothed Idler - 6mmGT2 5mm bore</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
     <t>Gates_2GT_20T_Smooth</t>
   </si>
   <si>
     <t>Pulley, Smooth Idler - 6mmGT2 5mm bore</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>Busching_3X5X10</t>
   </si>
   <si>
     <t>Bushing, Spacer - 3ID X 5OD</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>PulleyMount_REAR_RIGHT_Body</t>
   </si>
   <si>
     <t>Pulley Mount Rear Right</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
     <t>M5X25_CapScrew_92290A252</t>
   </si>
   <si>
@@ -456,9 +327,6 @@
   </si>
   <si>
     <t>AliExpress</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/32917702848.html?spm=a2g0s.9042311.0.0.10194c4dtWXsMc</t>
   </si>
   <si>
     <t>HevORT LOGO_Small</t>
@@ -503,13 +371,7 @@
     <t>Aliexpress (Mellow Store recommended for 3mm version)</t>
   </si>
   <si>
-    <t>3mm Bore: https://www.aliexpress.com/item/4000040551804.html?spm=a2g0s.9042311.0.0.2e6d4c4d7eSBhP</t>
-  </si>
-  <si>
     <t>6*</t>
-  </si>
-  <si>
-    <t>* Required if using 5mm bore idler pulleys at all locations</t>
   </si>
   <si>
     <t>6*
@@ -640,6 +502,37 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_AN0YX6</t>
+  </si>
+  <si>
+    <t>3x5x5mm Qty 2 per pulley</t>
+  </si>
+  <si>
+    <t>* Required if using 5mm bore idler pulleys at all locations
+Recommended to buy Mellow 3mm Bore Pulley directly instead of using bushings. See Item #4 and #5</t>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_9JaFmc</t>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_9jJDug</t>
+  </si>
+  <si>
+    <t>Aliexpress Mellow Store</t>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_AKV732</t>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_AL5GuY</t>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_A1wo9I</t>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_AFHDkY</t>
   </si>
 </sst>
 </file>
@@ -931,7 +824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1002,9 +895,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1041,12 +931,39 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1066,18 +983,6 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3202,11 +3107,11 @@
     <tableColumn id="5" xr3:uid="{CE5B2B5F-D0A6-47B0-BFF0-90DC345DBBC3}" name="Part Name" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{31673555-1A8D-43B0-AE74-3428FFEE55E7}" name="Part Description" dataDxfId="6"/>
     <tableColumn id="7" xr3:uid="{9FD8A355-C777-4ADA-8687-5E409EFC2895}" name="Make/Buy" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{77BAFA95-413F-46B2-BF39-C18E6ED49C84}" name="Included in _x000a_HDWKit_XYHT" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{4890B1E8-450A-4D65-BBC1-157562D55A53}" name="QTY" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{A5636ECD-04C7-4981-B309-C915A2AFAD84}" name="Comment" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{7F9E442A-32F0-47A8-A91F-A92DC1BD3A8C}" name="Vendor" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{232B9C33-D04A-46EC-AD10-AEE60BE0A81C}" name="Vendor URL" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{77BAFA95-413F-46B2-BF39-C18E6ED49C84}" name="Included in _x000a_HDWKit_XYHT" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{4890B1E8-450A-4D65-BBC1-157562D55A53}" name="QTY" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{A5636ECD-04C7-4981-B309-C915A2AFAD84}" name="Comment" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{7F9E442A-32F0-47A8-A91F-A92DC1BD3A8C}" name="Vendor" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{232B9C33-D04A-46EC-AD10-AEE60BE0A81C}" name="Vendor URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3535,13 +3440,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="97" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="34" customWidth="1"/>
     <col min="2" max="2" width="10.90625" style="8" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="8"/>
     <col min="4" max="4" width="19.36328125" style="8" customWidth="1"/>
@@ -3550,20 +3455,20 @@
     <col min="7" max="8" width="16.36328125" style="8" customWidth="1"/>
     <col min="9" max="9" width="21.81640625" style="8" customWidth="1"/>
     <col min="10" max="10" width="51.453125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="20.90625" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36.6328125" style="8" customWidth="1"/>
     <col min="13" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -3572,19 +3477,19 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="36" t="s">
-        <v>163</v>
+      <c r="H1" s="35" t="s">
+        <v>117</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
@@ -3594,333 +3499,345 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
-        <v>124</v>
+      <c r="A2" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>97</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="12" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14">
         <v>1</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="K2" s="11"/>
-      <c r="L2" s="16"/>
+      <c r="L2" s="36" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
-        <v>124</v>
+      <c r="A3" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>110</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14">
         <v>1</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="K3" s="11"/>
-      <c r="L3" s="16"/>
+      <c r="L3" s="16" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="34" t="s">
-        <v>124</v>
+      <c r="A4" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>107</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="10">
+        <v>3</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="21" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="22" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="16"/>
+        <v>121</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
-        <v>124</v>
+      <c r="A5" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>104</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="21" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="22" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>148</v>
+        <v>103</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
-        <v>124</v>
+      <c r="A6" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>101</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>5</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="21" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="22" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>148</v>
+        <v>103</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="34" t="s">
-        <v>124</v>
+      <c r="A7" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10">
         <v>6</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="14">
         <v>2</v>
       </c>
       <c r="J7" s="19"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="16"/>
+      <c r="K7" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
-        <v>124</v>
+      <c r="A8" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>7</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="14">
         <v>1</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="34" t="s">
-        <v>124</v>
+      <c r="A9" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="10">
+        <v>8</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="14" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="34" t="s">
-        <v>124</v>
+      <c r="A10" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="10" t="s">
         <v>5</v>
+      </c>
+      <c r="C10" s="10">
+        <v>9</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="12" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="14" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="34" t="s">
-        <v>124</v>
+      <c r="A11" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="10">
+        <v>10</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="14">
         <v>1</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="16"/>
     </row>
     <row r="12" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
-        <v>124</v>
+      <c r="A12" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>43</v>
+        <v>5</v>
+      </c>
+      <c r="C12" s="10">
+        <v>11</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="12" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="I12" s="14">
         <v>2</v>
@@ -3930,24 +3847,24 @@
       <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34" t="s">
-        <v>124</v>
+      <c r="A13" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>55</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="10">
+        <v>12</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="14">
@@ -3958,24 +3875,24 @@
       <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="34" t="s">
-        <v>124</v>
+      <c r="A14" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>83</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="10">
+        <v>13</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="12" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="14">
@@ -3983,160 +3900,162 @@
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="16"/>
+      <c r="L14" s="39" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
-        <v>124</v>
+      <c r="A15" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="10">
+        <v>14</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="14" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:12" s="17" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>31</v>
+      <c r="A16" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="10">
+        <v>15</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="I16" s="26">
+        <v>5</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="25">
         <v>34</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="27"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29" t="s">
-        <v>153</v>
+      <c r="A17" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="10">
+        <v>16</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28" t="s">
+        <v>107</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>158</v>
+        <v>108</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>112</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>142</v>
+        <v>98</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="17" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>37</v>
+      <c r="A18" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="10">
+        <v>17</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="J18" s="32" t="s">
-        <v>157</v>
+        <v>5</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>111</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="L18" s="33" t="s">
-        <v>142</v>
+        <v>98</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34" t="s">
-        <v>124</v>
+      <c r="A19" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>23</v>
+        <v>82</v>
+      </c>
+      <c r="C19" s="10">
+        <v>18</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="I19" s="14">
         <v>12</v>
@@ -4146,27 +4065,27 @@
       <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="34" t="s">
-        <v>124</v>
+      <c r="A20" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>69</v>
+        <v>82</v>
+      </c>
+      <c r="C20" s="10">
+        <v>19</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="12" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="I20" s="14">
         <v>4</v>
@@ -4176,27 +4095,27 @@
       <c r="L20" s="16"/>
     </row>
     <row r="21" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="34" t="s">
-        <v>124</v>
+      <c r="A21" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>46</v>
+        <v>82</v>
+      </c>
+      <c r="C21" s="10">
+        <v>20</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="I21" s="14">
         <v>6</v>
@@ -4206,27 +4125,27 @@
       <c r="L21" s="16"/>
     </row>
     <row r="22" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="34" t="s">
-        <v>124</v>
+      <c r="A22" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>72</v>
+        <v>82</v>
+      </c>
+      <c r="C22" s="10">
+        <v>21</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="12" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="I22" s="14">
         <v>2</v>
@@ -4236,27 +4155,27 @@
       <c r="L22" s="16"/>
     </row>
     <row r="23" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="34" t="s">
-        <v>124</v>
+      <c r="A23" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>52</v>
+        <v>82</v>
+      </c>
+      <c r="C23" s="10">
+        <v>22</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="12" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="I23" s="14">
         <v>4</v>
@@ -4266,27 +4185,27 @@
       <c r="L23" s="16"/>
     </row>
     <row r="24" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="34" t="s">
-        <v>124</v>
+      <c r="A24" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>66</v>
+        <v>82</v>
+      </c>
+      <c r="C24" s="10">
+        <v>23</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="12" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="I24" s="14">
         <v>4</v>
@@ -4296,27 +4215,27 @@
       <c r="L24" s="16"/>
     </row>
     <row r="25" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="34" t="s">
-        <v>124</v>
+      <c r="A25" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>15</v>
+        <v>82</v>
+      </c>
+      <c r="C25" s="10">
+        <v>24</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="I25" s="14">
         <v>25</v>
@@ -4326,27 +4245,27 @@
       <c r="L25" s="16"/>
     </row>
     <row r="26" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="34" t="s">
-        <v>124</v>
+      <c r="A26" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>31</v>
+        <v>82</v>
+      </c>
+      <c r="C26" s="10">
+        <v>25</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="12" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="I26" s="14">
         <v>4</v>
@@ -4356,27 +4275,27 @@
       <c r="L26" s="16"/>
     </row>
     <row r="27" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="34" t="s">
-        <v>124</v>
+      <c r="A27" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>49</v>
+        <v>82</v>
+      </c>
+      <c r="C27" s="10">
+        <v>26</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="12" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="I27" s="14">
         <v>6</v>
@@ -4386,27 +4305,27 @@
       <c r="L27" s="16"/>
     </row>
     <row r="28" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="34" t="s">
-        <v>124</v>
+      <c r="A28" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="C28" s="10">
+        <v>27</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="12" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="I28" s="14">
         <v>2</v>
@@ -4416,27 +4335,27 @@
       <c r="L28" s="16"/>
     </row>
     <row r="29" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="34" t="s">
-        <v>124</v>
+      <c r="A29" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>63</v>
+        <v>82</v>
+      </c>
+      <c r="C29" s="10">
+        <v>28</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="12" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="I29" s="14">
         <v>6</v>
@@ -4446,27 +4365,27 @@
       <c r="L29" s="16"/>
     </row>
     <row r="30" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="34" t="s">
-        <v>124</v>
+      <c r="A30" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>115</v>
+        <v>82</v>
+      </c>
+      <c r="C30" s="10">
+        <v>29</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="12" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="I30" s="14">
         <v>1</v>
@@ -4476,27 +4395,27 @@
       <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="34" t="s">
-        <v>124</v>
+      <c r="A31" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>34</v>
+        <v>82</v>
+      </c>
+      <c r="C31" s="10">
+        <v>30</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="12" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="I31" s="14">
         <v>3</v>
@@ -4506,27 +4425,27 @@
       <c r="L31" s="16"/>
     </row>
     <row r="32" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="34" t="s">
-        <v>124</v>
+      <c r="A32" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>114</v>
+        <v>82</v>
+      </c>
+      <c r="C32" s="10">
+        <v>31</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="I32" s="14">
         <v>27</v>
@@ -4536,27 +4455,27 @@
       <c r="L32" s="16"/>
     </row>
     <row r="33" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="34" t="s">
-        <v>124</v>
+      <c r="A33" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>28</v>
+        <v>82</v>
+      </c>
+      <c r="C33" s="10">
+        <v>32</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="12" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="25" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="I33" s="14">
         <v>27</v>
@@ -4566,24 +4485,24 @@
       <c r="L33" s="16"/>
     </row>
     <row r="34" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="34" t="s">
-        <v>124</v>
+      <c r="A34" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="C34" s="10">
+        <v>33</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="12" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="14">
@@ -4594,22 +4513,22 @@
       <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="34" t="s">
-        <v>124</v>
+      <c r="A35" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>95</v>
+        <v>12</v>
+      </c>
+      <c r="C35" s="10">
+        <v>34</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="12" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="14">
@@ -4617,29 +4536,29 @@
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="L35" s="33" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="L35" s="32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="34" t="s">
-        <v>124</v>
+      <c r="A36" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>93</v>
+        <v>12</v>
+      </c>
+      <c r="C36" s="10">
+        <v>35</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="12" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="14">
@@ -4647,29 +4566,29 @@
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="L36" s="33" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="L36" s="32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="34" t="s">
-        <v>124</v>
+      <c r="A37" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>88</v>
+        <v>12</v>
+      </c>
+      <c r="C37" s="10">
+        <v>36</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="12" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="14">
@@ -4677,31 +4596,31 @@
       </c>
       <c r="J37" s="15"/>
       <c r="K37" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="L37" s="33" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="L37" s="32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="34" t="s">
-        <v>124</v>
+      <c r="A38" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="10">
         <v>37</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="12" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="14">
@@ -4709,31 +4628,31 @@
       </c>
       <c r="J38" s="15"/>
       <c r="K38" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="L38" s="33" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="L38" s="32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="34" t="s">
-        <v>124</v>
+      <c r="A39" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>90</v>
+        <v>12</v>
+      </c>
+      <c r="C39" s="10">
+        <v>38</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="12" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="14">
@@ -4741,31 +4660,31 @@
       </c>
       <c r="J39" s="15"/>
       <c r="K39" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="L39" s="33" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="L39" s="32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="34" t="s">
-        <v>124</v>
+      <c r="A40" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="C40" s="10">
+        <v>39</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="12" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="14">
@@ -4773,31 +4692,31 @@
       </c>
       <c r="J40" s="15"/>
       <c r="K40" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="L40" s="33" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="L40" s="32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="34" t="s">
-        <v>124</v>
+      <c r="A41" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>80</v>
+        <v>12</v>
+      </c>
+      <c r="C41" s="10">
+        <v>40</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="12" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="14">
@@ -4805,31 +4724,31 @@
       </c>
       <c r="J41" s="15"/>
       <c r="K41" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="L41" s="33" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="L41" s="32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="34" t="s">
-        <v>124</v>
+      <c r="A42" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>58</v>
+        <v>12</v>
+      </c>
+      <c r="C42" s="10">
+        <v>41</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="12" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="14">
@@ -4837,31 +4756,31 @@
       </c>
       <c r="J42" s="15"/>
       <c r="K42" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="L42" s="33" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="L42" s="32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="34" t="s">
-        <v>124</v>
+      <c r="A43" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="C43" s="10">
+        <v>42</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="14">
@@ -4869,31 +4788,31 @@
       </c>
       <c r="J43" s="15"/>
       <c r="K43" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="L43" s="33" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="L43" s="32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="34" t="s">
-        <v>124</v>
+      <c r="A44" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>111</v>
+        <v>12</v>
+      </c>
+      <c r="C44" s="10">
+        <v>43</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="12" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="14">
@@ -4901,29 +4820,29 @@
       </c>
       <c r="J44" s="15"/>
       <c r="K44" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="L44" s="33" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="L44" s="32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="34" t="s">
-        <v>124</v>
+      <c r="A45" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="C45" s="10">
+        <v>44</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="12" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="14">
@@ -4931,29 +4850,29 @@
       </c>
       <c r="J45" s="15"/>
       <c r="K45" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="L45" s="33" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="L45" s="32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="34" t="s">
-        <v>124</v>
+      <c r="A46" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>78</v>
+        <v>12</v>
+      </c>
+      <c r="C46" s="10">
+        <v>45</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="12" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="14">
@@ -4961,29 +4880,29 @@
       </c>
       <c r="J46" s="15"/>
       <c r="K46" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="L46" s="33" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="L46" s="32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="34" t="s">
-        <v>124</v>
+      <c r="A47" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>61</v>
+        <v>12</v>
+      </c>
+      <c r="C47" s="10">
+        <v>46</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="12" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="14">
@@ -4991,39 +4910,45 @@
       </c>
       <c r="J47" s="15"/>
       <c r="K47" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="L47" s="33" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="L47" s="32" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L18" r:id="rId1" xr:uid="{B0B3DD13-6213-4FB9-BB54-881AC31305A4}"/>
-    <hyperlink ref="L17" r:id="rId2" xr:uid="{6711905A-868B-4FFD-A438-52E4B92FC898}"/>
-    <hyperlink ref="L35" r:id="rId3" xr:uid="{2D062015-27F1-46B8-9006-274D5DD025ED}"/>
-    <hyperlink ref="L36" r:id="rId4" xr:uid="{962734AA-7F4B-4171-A799-FDDB7167C305}"/>
-    <hyperlink ref="L37" r:id="rId5" xr:uid="{E18AF08A-2C76-4061-82E9-6A3AF7DE9FC2}"/>
-    <hyperlink ref="L38" r:id="rId6" xr:uid="{B3990A57-6C8F-4C89-981D-C5E87EC8D9FA}"/>
-    <hyperlink ref="L39" r:id="rId7" xr:uid="{4B784599-3E15-454E-9AD0-1A63BD495F9E}"/>
-    <hyperlink ref="L40" r:id="rId8" xr:uid="{7653D046-B918-4E4B-AC7E-3C4BB0BBC22E}"/>
-    <hyperlink ref="L41" r:id="rId9" xr:uid="{D6B09751-2996-45C2-9742-143F1F18FEF0}"/>
-    <hyperlink ref="L42" r:id="rId10" xr:uid="{15330A4C-AFC7-46D3-8A71-EB55C12CCC8C}"/>
-    <hyperlink ref="L43" r:id="rId11" xr:uid="{316F21C6-682F-4F09-A6B3-A5BB1558400C}"/>
-    <hyperlink ref="L44" r:id="rId12" xr:uid="{14D38675-A6DE-4DCA-B32E-8559ED2D1642}"/>
-    <hyperlink ref="L45" r:id="rId13" xr:uid="{2AFF4EA3-0EB9-4FC7-BEB2-41A9B8A7878B}"/>
-    <hyperlink ref="L46" r:id="rId14" xr:uid="{A47AE3DF-6B99-4C7F-B7B5-94E9FEF1B5DD}"/>
-    <hyperlink ref="L47" r:id="rId15" xr:uid="{01156BE0-B91E-4D9C-BA6A-C6811CE07C83}"/>
+    <hyperlink ref="L35" r:id="rId1" xr:uid="{2D062015-27F1-46B8-9006-274D5DD025ED}"/>
+    <hyperlink ref="L36" r:id="rId2" xr:uid="{962734AA-7F4B-4171-A799-FDDB7167C305}"/>
+    <hyperlink ref="L37" r:id="rId3" xr:uid="{E18AF08A-2C76-4061-82E9-6A3AF7DE9FC2}"/>
+    <hyperlink ref="L38" r:id="rId4" xr:uid="{B3990A57-6C8F-4C89-981D-C5E87EC8D9FA}"/>
+    <hyperlink ref="L39" r:id="rId5" xr:uid="{4B784599-3E15-454E-9AD0-1A63BD495F9E}"/>
+    <hyperlink ref="L40" r:id="rId6" xr:uid="{7653D046-B918-4E4B-AC7E-3C4BB0BBC22E}"/>
+    <hyperlink ref="L41" r:id="rId7" xr:uid="{D6B09751-2996-45C2-9742-143F1F18FEF0}"/>
+    <hyperlink ref="L42" r:id="rId8" xr:uid="{15330A4C-AFC7-46D3-8A71-EB55C12CCC8C}"/>
+    <hyperlink ref="L43" r:id="rId9" xr:uid="{316F21C6-682F-4F09-A6B3-A5BB1558400C}"/>
+    <hyperlink ref="L44" r:id="rId10" xr:uid="{14D38675-A6DE-4DCA-B32E-8559ED2D1642}"/>
+    <hyperlink ref="L45" r:id="rId11" xr:uid="{2AFF4EA3-0EB9-4FC7-BEB2-41A9B8A7878B}"/>
+    <hyperlink ref="L46" r:id="rId12" xr:uid="{A47AE3DF-6B99-4C7F-B7B5-94E9FEF1B5DD}"/>
+    <hyperlink ref="L47" r:id="rId13" xr:uid="{01156BE0-B91E-4D9C-BA6A-C6811CE07C83}"/>
+    <hyperlink ref="L4" r:id="rId14" xr:uid="{CAB9AA35-AA46-4E0B-84E9-B3AA21954CB7}"/>
+    <hyperlink ref="L5" r:id="rId15" xr:uid="{886ECF41-7565-4F5D-A361-8BC2CAB518E6}"/>
+    <hyperlink ref="L6" r:id="rId16" xr:uid="{3D24DDDC-F8B9-4FFB-89CE-E92907409508}"/>
+    <hyperlink ref="L7" r:id="rId17" xr:uid="{A8357267-DEDF-46F7-ABC6-F4CD9B43B136}"/>
+    <hyperlink ref="L14" r:id="rId18" xr:uid="{9AC92E32-0C13-4E99-9E01-C322FDF9C6F5}"/>
+    <hyperlink ref="L17" r:id="rId19" xr:uid="{DE425913-B38A-4403-8988-3947C4E9B560}"/>
+    <hyperlink ref="L18" r:id="rId20" xr:uid="{F84E6DF5-2917-47FF-865E-95B77E9C2E10}"/>
+    <hyperlink ref="L2" r:id="rId21" xr:uid="{BA155479-49AD-42D0-A4C0-C0307E8EB8A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId16"/>
-  <drawing r:id="rId17"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId22"/>
+  <drawing r:id="rId23"/>
   <webPublishItems count="1">
     <webPublishItem id="22134" divId="BOM_XYHT_22134" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_XYHT.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
 </file>